--- a/meluzin/SV_echo_Z1_Z3_klid_elev_120echo_240echo_.xlsx
+++ b/meluzin/SV_echo_Z1_Z3_klid_elev_120echo_240echo_.xlsx
@@ -23,6 +23,14 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>2,5,8,11,13,14,15,16,18,20,32,33</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
@@ -35,12 +43,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -135,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -146,6 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálne" xfId="0" builtinId="0"/>
@@ -426,564 +441,1145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L16"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="10">
+        <v>2</v>
+      </c>
+      <c r="B1">
         <v>60.480000000000004</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>64.800000000000011</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>60.480000000000004</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>69.12</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>41.04013723155245</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>44.721627277638021</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>52.884388381479866</v>
       </c>
-      <c r="H1" s="3">
+      <c r="I1" s="3">
         <v>48.831371282371002</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>89.840051126322521</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>104.30097715431877</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>122.52075912165813</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>135.40200651173623</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="N1">
+        <v>1567.8638616007945</v>
+      </c>
+      <c r="O1">
+        <v>2128.8948148771701</v>
+      </c>
+      <c r="P1">
+        <v>3569.2049456033965</v>
+      </c>
+      <c r="Q1">
+        <v>1227.9045212967028</v>
+      </c>
+      <c r="R1">
+        <v>1664.299311823617</v>
+      </c>
+      <c r="S1">
+        <v>2752.8815753979206</v>
+      </c>
+      <c r="T1">
+        <v>1939.8756475927707</v>
+      </c>
+      <c r="U1">
+        <v>2215.9646213994452</v>
+      </c>
+      <c r="V1">
+        <v>3264.1258323246584</v>
+      </c>
+      <c r="W1">
+        <v>5364.1045703394984</v>
+      </c>
+      <c r="X1">
+        <v>4145.6567042092083</v>
+      </c>
+      <c r="Y1">
+        <v>4723.560297413881</v>
+      </c>
+      <c r="Z1">
+        <v>4180.8244327167913</v>
+      </c>
+      <c r="AA1">
+        <v>4511.2137518208447</v>
+      </c>
+      <c r="AB1">
+        <v>5251.0390778717674</v>
+      </c>
+      <c r="AC1">
+        <v>5068.4140375310335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>74.58</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>72.319999999999993</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>74.58</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>79.099999999999994</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>69.592221381594442</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>61.072682615985848</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>70.016457017848751</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>76.418656188427192</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>98.819309733729369</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>101.44061400391379</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>127.90377098018315</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>137.09046130803969</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="N2">
+        <v>2479.0430599980332</v>
+      </c>
+      <c r="O2">
+        <v>1191.1905976225321</v>
+      </c>
+      <c r="P2">
+        <v>2226.0915931888135</v>
+      </c>
+      <c r="Q2">
+        <v>2570.2479918409344</v>
+      </c>
+      <c r="R2">
+        <v>2246.0755741353432</v>
+      </c>
+      <c r="S2">
+        <v>3538.9962328182264</v>
+      </c>
+      <c r="T2">
+        <v>2270.0929177863254</v>
+      </c>
+      <c r="U2">
+        <v>2842.6265916710358</v>
+      </c>
+      <c r="V2">
+        <v>2587.9910942504994</v>
+      </c>
+      <c r="W2">
+        <v>2389.1621965034201</v>
+      </c>
+      <c r="X2">
+        <v>5436.2245648384524</v>
+      </c>
+      <c r="Y2">
+        <v>3546.1351276832156</v>
+      </c>
+      <c r="Z2">
+        <v>3272.8729131592495</v>
+      </c>
+      <c r="AA2">
+        <v>3013.1948702227951</v>
+      </c>
+      <c r="AB2">
+        <v>4565.9731482849638</v>
+      </c>
+      <c r="AC2">
+        <v>4595.0248654555126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>70.7</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>68.680000000000007</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>78.78</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>72.72</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>39.737094527423245</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>41.72820496414186</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>74.112929013475394</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>79.127313451213439</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>72.333846188518436</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>88.01912748240521</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>88.822013453841294</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>88.79680394284749</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="N3">
+        <v>3897.1053233127145</v>
+      </c>
+      <c r="O3">
+        <v>2436.0483030693476</v>
+      </c>
+      <c r="P3">
+        <v>376.42504582068585</v>
+      </c>
+      <c r="Q3">
+        <v>3457.2554481754528</v>
+      </c>
+      <c r="R3">
+        <v>1945.2564588899377</v>
+      </c>
+      <c r="S3">
+        <v>2468.6631796541769</v>
+      </c>
+      <c r="T3">
+        <v>2879.5235431700953</v>
+      </c>
+      <c r="U3">
+        <v>3594.1317601320961</v>
+      </c>
+      <c r="V3">
+        <v>2735.713495080568</v>
+      </c>
+      <c r="W3">
+        <v>3630.7975582792315</v>
+      </c>
+      <c r="X3">
+        <v>4680.5825995828773</v>
+      </c>
+      <c r="Y3">
+        <v>3034.8454545250784</v>
+      </c>
+      <c r="Z3">
+        <v>3294.3201305424891</v>
+      </c>
+      <c r="AA3">
+        <v>5024.3387245786489</v>
+      </c>
+      <c r="AB3">
+        <v>4549.0283116577903</v>
+      </c>
+      <c r="AC3">
+        <v>4670.1115355720422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>11</v>
+      </c>
+      <c r="B4">
         <v>48.480000000000004</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>56.56</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>42.42</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>46.46</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>55.805968246807943</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>42.464064851266691</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>45.518886477914684</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="6">
         <v>39.189115179287633</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>86.905968826873377</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>78.315292318836697</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>105.33990770408776</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>99.902163247513926</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>50.96</v>
+      <c r="N4">
+        <v>3136.9704538965634</v>
+      </c>
+      <c r="O4">
+        <v>1097.1177375959014</v>
+      </c>
+      <c r="P4">
+        <v>1885.22340306159</v>
+      </c>
+      <c r="Q4">
+        <v>978.6622936460551</v>
+      </c>
+      <c r="R4">
+        <v>3160.335940509236</v>
+      </c>
+      <c r="S4">
+        <v>3612.8538299008728</v>
+      </c>
+      <c r="T4">
+        <v>1666.6226648271443</v>
+      </c>
+      <c r="U4">
+        <v>1789.0339135723507</v>
+      </c>
+      <c r="V4">
+        <v>4730.809555628729</v>
+      </c>
+      <c r="W4">
+        <v>5313.6043440525418</v>
+      </c>
+      <c r="X4">
+        <v>6004.5846726143291</v>
+      </c>
+      <c r="Y4">
+        <v>5892.8734987169819</v>
+      </c>
+      <c r="Z4">
+        <v>4099.3505826418659</v>
+      </c>
+      <c r="AA4">
+        <v>5197.4289633076023</v>
+      </c>
+      <c r="AB4">
+        <v>4653.3347373960878</v>
+      </c>
+      <c r="AC4">
+        <v>5511.9829260461447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>13</v>
       </c>
       <c r="B5">
         <v>50.96</v>
       </c>
       <c r="C5">
+        <v>50.96</v>
+      </c>
+      <c r="D5">
         <v>64.679999999999993</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>60.76</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>55.835406518444408</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>61.531826542856706</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>82.257401824390882</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>82.193802799019153</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>105.36562698125823</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>92.500783767495946</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>96.635914366983968</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>98.519178998476292</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="N5">
+        <v>1343.2105991181181</v>
+      </c>
+      <c r="O5">
+        <v>1013.4630072093267</v>
+      </c>
+      <c r="P5">
+        <v>3487.6057523340755</v>
+      </c>
+      <c r="Q5">
+        <v>5642.4461875692987</v>
+      </c>
+      <c r="R5">
+        <v>1569.8630038957906</v>
+      </c>
+      <c r="S5">
+        <v>1839.8983470184342</v>
+      </c>
+      <c r="T5">
+        <v>4745.5366431346429</v>
+      </c>
+      <c r="U5">
+        <v>4812.4537265370245</v>
+      </c>
+      <c r="V5">
+        <v>3219.3130226868084</v>
+      </c>
+      <c r="W5">
+        <v>2463.9518561228374</v>
+      </c>
+      <c r="X5">
+        <v>3583.3502922543698</v>
+      </c>
+      <c r="Y5">
+        <v>5610.4470585292493</v>
+      </c>
+      <c r="Z5">
+        <v>3443.6995657291723</v>
+      </c>
+      <c r="AA5">
+        <v>3169.9328357086165</v>
+      </c>
+      <c r="AB5">
+        <v>4408.1028512626317</v>
+      </c>
+      <c r="AC5">
+        <v>5076.061136854345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>65.100000000000009</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>63</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>65.376109144217878</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>56.251016656090975</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6">
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+      <c r="J6">
         <v>73.464945405470971</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>96.098807255574002</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="N6">
+        <v>1410.4215271569494</v>
+      </c>
+      <c r="O6">
+        <v>1222.4698778926115</v>
+      </c>
+      <c r="R6">
+        <v>1536.7124855533243</v>
+      </c>
+      <c r="S6">
+        <v>1271.0788113114195</v>
+      </c>
+      <c r="V6">
+        <v>2859.5307550194261</v>
+      </c>
+      <c r="W6">
+        <v>2681.2098506675347</v>
+      </c>
+      <c r="Z6">
+        <v>2859.4243292493907</v>
+      </c>
+      <c r="AA6">
+        <v>3140.6056063428709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>61.32</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>70.08</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>65.7</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>56.94</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>88.145493190300087</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>89.970982009591523</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>63.114969177364721</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>158.17646663927025</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>119.09694485809889</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>140.28046955614306</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>134.13762433528476</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>135.21131496892383</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="N7">
+        <v>1158.5284170640102</v>
+      </c>
+      <c r="O7">
+        <v>871.20454834769589</v>
+      </c>
+      <c r="P7">
+        <v>20937.218729656666</v>
+      </c>
+      <c r="Q7">
+        <v>6102.0053585755568</v>
+      </c>
+      <c r="R7">
+        <v>1088.7607084301094</v>
+      </c>
+      <c r="S7">
+        <v>6820.7900072672683</v>
+      </c>
+      <c r="T7">
+        <v>6092.6688778583375</v>
+      </c>
+      <c r="U7">
+        <v>6792.5318005531262</v>
+      </c>
+      <c r="V7">
+        <v>3502.1814245137084</v>
+      </c>
+      <c r="W7">
+        <v>3865.0467637062116</v>
+      </c>
+      <c r="X7">
+        <v>3563.9353664644273</v>
+      </c>
+      <c r="Y7">
+        <v>6452.7878244704098</v>
+      </c>
+      <c r="Z7">
+        <v>3649.9189343513749</v>
+      </c>
+      <c r="AA7">
+        <v>3716.537764311824</v>
+      </c>
+      <c r="AB7">
+        <v>3867.907883896326</v>
+      </c>
+      <c r="AC7">
+        <v>4372.1267926368901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>16</v>
+      </c>
+      <c r="B8">
         <v>60.32</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>66.56</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>68.64</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>39.894956367967609</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>48.701979554225787</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>67.231666666656622</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8">
+      <c r="I8" s="6"/>
+      <c r="J8">
         <v>90.825215737199315</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>101.44509078266525</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>118.2417767291023</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="N8">
+        <v>2207.6877327556595</v>
+      </c>
+      <c r="O8">
+        <v>2669.1349815438825</v>
+      </c>
+      <c r="P8">
+        <v>7738.6235190514772</v>
+      </c>
+      <c r="R8">
+        <v>1888.1428740539448</v>
+      </c>
+      <c r="S8">
+        <v>2820.2247417166041</v>
+      </c>
+      <c r="T8">
+        <v>4238.4726958659849</v>
+      </c>
+      <c r="V8">
+        <v>3429.8192189530432</v>
+      </c>
+      <c r="W8">
+        <v>3854.0300463828121</v>
+      </c>
+      <c r="X8">
+        <v>4762.9053633835492</v>
+      </c>
+      <c r="Z8">
+        <v>2994.1399792067646</v>
+      </c>
+      <c r="AA8">
+        <v>3546.9152414405808</v>
+      </c>
+      <c r="AB8">
+        <v>4624.0098126417033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>43</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>68.8</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>64.5</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>60.199999999999996</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>30.346020576016251</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>32.322026526198378</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>75.473101604095675</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>101.26607627474402</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>67.556113830709066</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>65.343559217741287</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>100.356313189137</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>106.90274922214572</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="N9">
+        <v>1054.7930564660444</v>
+      </c>
+      <c r="O9">
+        <v>3868.7936496765133</v>
+      </c>
+      <c r="P9">
+        <v>2772.6282973492403</v>
+      </c>
+      <c r="Q9">
+        <v>8642.3802843298818</v>
+      </c>
+      <c r="R9">
+        <v>990.48850763492976</v>
+      </c>
+      <c r="S9">
+        <v>9190.0284244738232</v>
+      </c>
+      <c r="T9">
+        <v>5800.7259151587987</v>
+      </c>
+      <c r="U9">
+        <v>8642.5608798474768</v>
+      </c>
+      <c r="V9">
+        <v>2740.345860175793</v>
+      </c>
+      <c r="W9">
+        <v>2377.6693539403877</v>
+      </c>
+      <c r="X9">
+        <v>4897.0355248178457</v>
+      </c>
+      <c r="Y9">
+        <v>3674.0452384152918</v>
+      </c>
+      <c r="Z9">
+        <v>2415.6135370860047</v>
+      </c>
+      <c r="AA9">
+        <v>3586.6969441326401</v>
+      </c>
+      <c r="AB9">
+        <v>4192.6227002339347</v>
+      </c>
+      <c r="AC9">
+        <v>4740.0655300822209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>20</v>
+      </c>
+      <c r="C10">
         <v>72</v>
-      </c>
-      <c r="C10">
-        <v>82</v>
       </c>
       <c r="D10">
         <v>82</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
+      <c r="E10">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5">
         <v>57.853189189439568</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>59.004170382536373</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>62.353266928043375</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>130.36553768834943</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>132.39386186975796</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>131.46337806450796</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="O10">
+        <v>645.60097725687751</v>
+      </c>
+      <c r="P10">
+        <v>3373.930572554284</v>
+      </c>
+      <c r="Q10">
+        <v>4315.7766261552906</v>
+      </c>
+      <c r="S10">
+        <v>762.79559859128437</v>
+      </c>
+      <c r="T10">
+        <v>2128.8271106677648</v>
+      </c>
+      <c r="U10">
+        <v>2643.0006882165303</v>
+      </c>
+      <c r="W10">
+        <v>1315.5476067679481</v>
+      </c>
+      <c r="X10">
+        <v>4013.8183066854149</v>
+      </c>
+      <c r="Y10">
+        <v>3539.0630154784221</v>
+      </c>
+      <c r="AA10">
+        <v>2532.634641491903</v>
+      </c>
+      <c r="AB10">
+        <v>3100.3910815135205</v>
+      </c>
+      <c r="AC10">
+        <v>3934.8102262814427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>24</v>
+      </c>
+      <c r="B11">
         <v>43.93</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>53.48</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>42.41668438268546</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>41.200376632116935</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11">
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="J11">
         <v>86.639641395443675</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>82.924759792511551</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>28</v>
+      </c>
+      <c r="B12">
         <v>73.44</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>79.92</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>82.080000000000013</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>71.28</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>55.670811781013171</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>56.538717255166205</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>79.527105052299746</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>78.208156139558312</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>80.490534713038599</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>74.064159411419894</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>101.35231722943131</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>93.766565894708322</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>32</v>
+      </c>
+      <c r="B13">
         <v>54.87</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>69.03</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>74.34</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>69.03</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>37.74512334106938</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>36.037210248111528</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>42.446076988612226</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>53.388366096892</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>60.940711751485665</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>71.633122642632316</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>82.443698281338456</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>88.647416153026299</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="N13">
+        <v>1608.2818819286285</v>
+      </c>
+      <c r="O13">
+        <v>1406.8972499291908</v>
+      </c>
+      <c r="P13">
+        <v>1145.0310265515172</v>
+      </c>
+      <c r="Q13">
+        <v>2403.0289991159639</v>
+      </c>
+      <c r="R13">
+        <v>1674.6065907482784</v>
+      </c>
+      <c r="S13">
+        <v>1241.8199220620643</v>
+      </c>
+      <c r="T13">
+        <v>2200.00691080264</v>
+      </c>
+      <c r="U13">
+        <v>2718.561106455405</v>
+      </c>
+      <c r="V13">
+        <v>4167.4969269712365</v>
+      </c>
+      <c r="W13">
+        <v>4504.0397963683699</v>
+      </c>
+      <c r="X13">
+        <v>3890.3048049658064</v>
+      </c>
+      <c r="Y13">
+        <v>7279.9163519717458</v>
+      </c>
+      <c r="Z13">
+        <v>4372.2514015711195</v>
+      </c>
+      <c r="AA13">
+        <v>5072.9182818016707</v>
+      </c>
+      <c r="AB13">
+        <v>5474.6150893274535</v>
+      </c>
+      <c r="AC13">
+        <v>6453.6953227992053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>33</v>
+      </c>
+      <c r="B14">
         <v>43.699999999999996</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>53.199999999999996</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>45.599999999999994</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>41.8</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>43.606038058232102</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>54.58044723403421</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>76.94116203524537</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>57.371313105129126</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>78.008416871374564</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>81.3967680084058</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>71.156020228973745</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>71.782286525273989</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="N14">
+        <v>2019.3577847656716</v>
+      </c>
+      <c r="O14">
+        <v>1233.7646193148373</v>
+      </c>
+      <c r="P14">
+        <v>4308.2920815818143</v>
+      </c>
+      <c r="Q14">
+        <v>2137.0422536699216</v>
+      </c>
+      <c r="R14">
+        <v>997.3219011943861</v>
+      </c>
+      <c r="S14">
+        <v>897.3381984780774</v>
+      </c>
+      <c r="T14">
+        <v>6157.9681273035376</v>
+      </c>
+      <c r="U14">
+        <v>1853.0513476134629</v>
+      </c>
+      <c r="V14">
+        <v>2652.9969506531252</v>
+      </c>
+      <c r="W14">
+        <v>2198.2970372183236</v>
+      </c>
+      <c r="X14">
+        <v>2714.2372851900864</v>
+      </c>
+      <c r="Y14">
+        <v>1049.3556472404646</v>
+      </c>
+      <c r="Z14">
+        <v>3049.8403868205041</v>
+      </c>
+      <c r="AA14">
+        <v>2217.5590771492871</v>
+      </c>
+      <c r="AB14">
+        <v>3195.6540209746659</v>
+      </c>
+      <c r="AC14">
+        <v>1500.1571455661658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>38</v>
+      </c>
+      <c r="B15">
         <v>123.20000000000002</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>140.80000000000001</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>145.20000000000002</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>70.969612764590082</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
         <v>94.343135708438865</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>89.201352491848468</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>131.93953051903284</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>158.36024699101347</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>142.55439340849574</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>40</v>
+      </c>
+      <c r="B16">
         <v>93.600000000000009</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>104</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>83.2</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>79.040000000000006</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F16" s="7">
         <v>66.168263374483843</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <v>79.808653717560361</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="8">
         <v>93.392944599341689</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="9">
         <v>114.22861723206411</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>130.56722420149617</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>145.30476755748941</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>140.88259019306579</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>145.32173550784316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
